--- a/DbLayouts/L4-批次作業/BatxDetail.xlsx
+++ b/DbLayouts/L4-批次作業/BatxDetail.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="288">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -89,10 +89,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>FileName</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>FacmNo</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -171,10 +167,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>MediaSeq</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>AcDate,BatchNo</t>
   </si>
   <si>
@@ -205,9 +197,6 @@
     <t>Decimald</t>
   </si>
   <si>
-    <t>檔名</t>
-  </si>
-  <si>
     <t xml:space="preserve">CustNo = </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -233,10 +222,6 @@
   </si>
   <si>
     <t>AcDate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>對帳類別</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -471,10 +456,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">AcDate &gt;= , AND AcDate &lt;= , AND RepayCode = </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>明細序號</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -511,10 +492,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>AcDate = , AND BatchNo = , AND ProcStsCode ^i</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>VirtualAcctNo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -618,37 +595,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">AcDate = , AND BatchNo = , AND TitaTlrNo = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AcDate = , AND BatchNo = </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>MediaDate ASC ,MediaKind ASC ,MediaSeq ASC</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>AcDate = , AND BatchNo = , AND CustNo = , AND ProcStsCode ^i</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BatchNo DESC , DetailSeq ASC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>fileCheck</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AcDate = , AND FileName = </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">BatchNo DESC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AcDate &gt;= , AND AcDate &lt;= , AND CustNo &gt;= , AND CustNo &lt;= , AND RepayCode &gt;= , AND RepayCode &lt;= , AND ProcStsCode ^i </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -983,16 +934,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode:ReconCode
-P01銀行存款－郵局
-P02銀行存款－新光
-P03銀行存款－新光匯款轉帳
-P04銀行存款－台新
-TEM員工扣薪15/非15???
-TCK支票</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>00003</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1013,10 +954,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>AcDate = , AND BatchNo = , AND CustNo = , AND ProcStsCode ^i</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>findL4930CAEq</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1037,35 +974,140 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode:ProcStsCode
+    <t>BatchNo DESC ,DetailSeq DESC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CdCode:ProcStsCode
 0.未檢核
 1.不處理
 2.人工處理
 3.檢核錯誤
 4.檢核正常
-5.人工入帳
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="思源宋體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>5.單筆入帳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="思源宋體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
 6.批次入帳
 7.待轉暫收</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcDate = , AND FileName = , AND CustNo = , AND RepayAmt = , AND ProcStsCode ^i</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AcDate = , AND BatchNo = </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BatchNo DESC ,DetailSeq DESC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>MediaSeq</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileName</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>檔案序號</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>檔名</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordSeq</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatchNo DESC , DetailSeq ASC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatchNo DESC , RecordSeq ASC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>findL4930RAEq</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>findL4930RHEq</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcDate = ,AND BatchNo = ,AND TitaTlrNo = </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcDate = ,AND BatchNo = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AcDate &gt;= ,AND AcDate &lt;= ,AND CustNo &gt;= ,AND CustNo &lt;= ,AND RepayCode &gt;= ,AND RepayCode &lt;= ,AND ProcStsCode ^i </t>
+  </si>
+  <si>
+    <t>AcDate = ,AND FileName = ,AND CustNo = ,AND RepayAmt = ,AND ProcStsCode ^i</t>
+  </si>
+  <si>
+    <t>AcDate = ,AND BatchNo = ,AND CustNo = ,AND ProcStsCode ^i</t>
+  </si>
+  <si>
+    <t>AcDate = ,AND BatchNo = ,AND ProcStsCode ^i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AcDate &gt;= ,AND AcDate &lt;= ,AND RepayCode = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AcDate = ,AND FileName = </t>
+  </si>
+  <si>
+    <t>AcDate = ,AND BatchNo = ,AND ProcStsCode ^i</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate = ,AND BatchNo = ,AND ReconCode = ,AND ProcStsCode ^i</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate = ,AND BatchNo = ,AND ReconCode = ,AND ProcStsCode ^i</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>對帳類別</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode:ReconCode
+P01銀行存款－郵局
+P02銀行存款－新光
+A1~A7 (P03銀行存款－新光匯款轉帳)
+P04銀行存款－台新
+TEM員工扣薪15/非15???
+TCK支票</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1169,6 +1211,20 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="思源宋體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1259,7 +1315,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1363,6 +1419,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1684,10 +1761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1702,25 +1779,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="44"/>
       <c r="C1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="35"/>
-      <c r="B2" s="37"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="8" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -1730,12 +1807,12 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>17</v>
@@ -1745,27 +1822,27 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="12" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="12" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -1773,12 +1850,12 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
@@ -1786,12 +1863,12 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
@@ -1799,12 +1876,12 @@
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="36"/>
+      <c r="A8" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="43"/>
       <c r="C8" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="10"/>
@@ -1839,13 +1916,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E10" s="23">
         <v>8</v>
@@ -1857,13 +1934,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="23">
         <v>6</v>
@@ -1875,19 +1952,19 @@
         <v>3</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="23">
         <v>6</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="178.2">
@@ -1895,19 +1972,19 @@
         <v>4</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="23">
         <v>2</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1915,203 +1992,204 @@
         <v>5</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>18</v>
+        <v>266</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>50</v>
+        <v>268</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="23">
         <v>50</v>
       </c>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="19">
-        <v>7</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="23">
-        <v>8</v>
-      </c>
-      <c r="G15" s="24"/>
+    <row r="15" spans="1:7" s="41" customFormat="1">
+      <c r="A15" s="35">
+        <v>6</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E15" s="38">
+        <v>6</v>
+      </c>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="19">
+        <v>7</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="23">
         <v>8</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="23">
-        <v>7</v>
       </c>
       <c r="G16" s="24"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>24</v>
+        <v>98</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" s="23">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="19">
+        <v>9</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="23">
+        <v>3</v>
+      </c>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="19">
         <v>10</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="23">
+      <c r="B19" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="23">
         <v>30</v>
       </c>
-      <c r="G18" s="24" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="162">
-      <c r="A19" s="19">
+      <c r="G19" s="24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="162">
+      <c r="A20" s="19">
         <v>11</v>
       </c>
-      <c r="B19" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="23">
+      <c r="B20" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="23">
         <v>2</v>
       </c>
-      <c r="G19" s="24" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="113.4">
-      <c r="A20" s="19">
+      <c r="G20" s="24" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="113.4">
+      <c r="A21" s="19">
         <v>12</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="22" t="s">
+      <c r="B21" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="23">
+        <v>3</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="32.4">
+      <c r="A22" s="19">
+        <v>13</v>
+      </c>
+      <c r="B22" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="23">
-        <v>3</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="32.4">
-      <c r="A21" s="19">
-        <v>13</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="23">
+      <c r="C22" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="23">
         <v>18</v>
       </c>
-      <c r="G21" s="21" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="19">
-        <v>14</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="19">
-        <v>14</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>271</v>
+      <c r="G22" s="21" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="19">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E23" s="19">
         <v>14</v>
       </c>
-      <c r="G23" s="24"/>
+      <c r="G23" s="24" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>26</v>
+        <v>68</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>255</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E24" s="19">
         <v>14</v>
@@ -2120,243 +2198,261 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E25" s="19">
         <v>14</v>
       </c>
       <c r="G25" s="24"/>
     </row>
-    <row r="26" spans="1:7" ht="145.80000000000001">
+    <row r="26" spans="1:7">
       <c r="A26" s="19">
+        <v>17</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="19">
+        <v>14</v>
+      </c>
+      <c r="G26" s="24"/>
+    </row>
+    <row r="27" spans="1:7" ht="145.80000000000001">
+      <c r="A27" s="19">
         <v>18</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="23">
+      <c r="B27" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="23">
         <v>1</v>
       </c>
-      <c r="G26" s="24" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="19">
+      <c r="G27" s="24" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="19">
         <v>19</v>
       </c>
-      <c r="B27" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="23">
+      <c r="B28" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="23">
         <v>5</v>
       </c>
-      <c r="G27" s="32" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="32.4">
-      <c r="A28" s="19">
+      <c r="G28" s="32" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="32.4">
+      <c r="A29" s="19">
         <v>20</v>
       </c>
-      <c r="B28" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="23">
+      <c r="B29" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="23">
         <v>600</v>
       </c>
-      <c r="G28" s="24" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="19">
-        <v>21</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="19">
-        <v>6</v>
-      </c>
-      <c r="G29" s="24"/>
+      <c r="G29" s="24" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="19">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E30" s="19">
-        <v>8</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>119</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="G30" s="24"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="19">
+        <v>22</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="19">
+        <v>8</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="19">
         <v>23</v>
       </c>
-      <c r="B31" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="23">
+      <c r="B32" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="23">
         <v>8</v>
       </c>
-      <c r="G31" s="24"/>
-    </row>
-    <row r="32" spans="1:7" ht="81">
-      <c r="A32" s="19">
+      <c r="G32" s="24"/>
+    </row>
+    <row r="33" spans="1:7" ht="81">
+      <c r="A33" s="19">
         <v>24</v>
       </c>
-      <c r="B32" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="23">
+      <c r="B33" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="23">
         <v>1</v>
       </c>
-      <c r="G32" s="24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="19">
-        <v>25</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="23">
-        <v>6</v>
-      </c>
-      <c r="G33" s="24"/>
+      <c r="G33" s="24" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="19">
-        <v>26</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>106</v>
+        <v>25</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>265</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E34" s="23"/>
+        <v>38</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="23">
+        <v>6</v>
+      </c>
       <c r="G34" s="24"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="19">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E35" s="23">
-        <v>6</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="E35" s="23"/>
       <c r="G35" s="24"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="19">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E36" s="23"/>
+        <v>107</v>
+      </c>
+      <c r="E36" s="23">
+        <v>6</v>
+      </c>
       <c r="G36" s="24"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="19">
+        <v>28</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="23"/>
+      <c r="G37" s="24"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="19">
         <v>29</v>
       </c>
-      <c r="B37" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" s="25" t="s">
+      <c r="B38" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="23">
+      <c r="D38" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="23">
         <v>6</v>
       </c>
-      <c r="G37" s="24"/>
+      <c r="G38" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2371,7 +2467,7 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G27" location="ProcCdoe!A1" display="參照ProcCode分頁"/>
+    <hyperlink ref="G28" location="ProcCdoe!A1" display="參照ProcCode分頁"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2380,11 +2476,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2408,238 +2504,260 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>156</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>155</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>163</v>
+        <v>277</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="34" customFormat="1">
       <c r="A18" s="33" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="34" customFormat="1">
       <c r="A19" s="33" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>158</v>
+        <v>279</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="34" customFormat="1">
       <c r="A20" s="33" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>127</v>
+        <v>280</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="34" customFormat="1">
       <c r="A21" s="33" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>127</v>
+        <v>283</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>162</v>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="34" customFormat="1">
+      <c r="A22" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="34" customFormat="1">
+      <c r="A23" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -2669,12 +2787,12 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="29" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2705,13 +2823,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
@@ -2724,13 +2842,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F7" s="16">
         <v>100</v>
@@ -2743,13 +2861,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F8" s="16">
         <v>14</v>
@@ -2762,13 +2880,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F9" s="16">
         <v>20</v>
@@ -2781,13 +2899,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" s="16">
         <v>20</v>
@@ -2800,13 +2918,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
@@ -2817,13 +2935,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
@@ -2834,20 +2952,20 @@
         <v>8</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F13" s="16">
         <v>100</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="30" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2873,402 +2991,402 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="31" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="B1" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="31" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="31" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B3" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="31" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="31" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B5" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="31" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B6" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="31" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="31" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="B8" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="31" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="B9" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="31" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="31" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B11" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="31" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="B12" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="31" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="31" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="31" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="31" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="B16" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="31" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B17" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="31" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="B18" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="31" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B19" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="31" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="B20" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="31" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="B21" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="31" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="B22" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="31" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B23" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="31" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="B24" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="31" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="B25" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="31" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="B26" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="31" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="B27" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="31" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="B28" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="31" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="B29" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="31" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="B30" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="31" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="B31" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="31" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="B32" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="31" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="B33" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="31" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="B34" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="31" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B35" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="31" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B36" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="31" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="B37" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="31" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="B38" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="31" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B39" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="31" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="B40" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="31" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="B41" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="31" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="B42" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="31" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="B43" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="31" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="B44" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="31" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B45" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="31" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="B46" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="31" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B47" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="31" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="B48" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="31" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="B49" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="31" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B50" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/DbLayouts/L4-批次作業/BatxDetail.xlsx
+++ b/DbLayouts/L4-批次作業/BatxDetail.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -308,10 +308,6 @@
     <t>findL4200AEq</t>
   </si>
   <si>
-    <t>ProcStsCode</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>ProcCode</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -978,10 +974,105 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>MediaSeq</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileName</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>檔案序號</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>檔名</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordSeq</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatchNo DESC , DetailSeq ASC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatchNo DESC , RecordSeq ASC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>findL4930RAEq</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>findL4930RHEq</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcDate = ,AND BatchNo = ,AND TitaTlrNo = </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcDate = ,AND BatchNo = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AcDate &gt;= ,AND AcDate &lt;= ,AND CustNo &gt;= ,AND CustNo &lt;= ,AND RepayCode &gt;= ,AND RepayCode &lt;= ,AND ProcStsCode ^i </t>
+  </si>
+  <si>
+    <t>AcDate = ,AND FileName = ,AND CustNo = ,AND RepayAmt = ,AND ProcStsCode ^i</t>
+  </si>
+  <si>
+    <t>AcDate = ,AND BatchNo = ,AND CustNo = ,AND ProcStsCode ^i</t>
+  </si>
+  <si>
+    <t>AcDate = ,AND BatchNo = ,AND ProcStsCode ^i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AcDate &gt;= ,AND AcDate &lt;= ,AND RepayCode = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AcDate = ,AND FileName = </t>
+  </si>
+  <si>
+    <t>AcDate = ,AND BatchNo = ,AND ProcStsCode ^i</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate = ,AND BatchNo = ,AND ReconCode = ,AND ProcStsCode ^i</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate = ,AND BatchNo = ,AND ReconCode = ,AND ProcStsCode ^i</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>對帳類別</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode:ReconCode
+P01銀行存款－郵局
+P02銀行存款－新光
+A1~A7 (P03銀行存款－新光匯款轉帳)
+P04銀行存款－台新
+TEM員工扣薪15/非15???
+TCK支票</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcStsCode</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">CdCode:ProcStsCode
 0.未檢核
-1.不處理
+1.失敗
 2.人工處理
 3.檢核錯誤
 4.檢核正常
@@ -1007,99 +1098,10 @@
       </rPr>
       <t xml:space="preserve">
 6.批次入帳
-7.待轉暫收</t>
+7.轉暫收
+D.刪除  
+</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>MediaSeq</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FileName</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>檔案序號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>檔名</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecordSeq</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BatchNo DESC , DetailSeq ASC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BatchNo DESC , RecordSeq ASC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>findL4930RAEq</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>findL4930RHEq</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AcDate = ,AND BatchNo = ,AND TitaTlrNo = </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AcDate = ,AND BatchNo = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AcDate &gt;= ,AND AcDate &lt;= ,AND CustNo &gt;= ,AND CustNo &lt;= ,AND RepayCode &gt;= ,AND RepayCode &lt;= ,AND ProcStsCode ^i </t>
-  </si>
-  <si>
-    <t>AcDate = ,AND FileName = ,AND CustNo = ,AND RepayAmt = ,AND ProcStsCode ^i</t>
-  </si>
-  <si>
-    <t>AcDate = ,AND BatchNo = ,AND CustNo = ,AND ProcStsCode ^i</t>
-  </si>
-  <si>
-    <t>AcDate = ,AND BatchNo = ,AND ProcStsCode ^i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AcDate &gt;= ,AND AcDate &lt;= ,AND RepayCode = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AcDate = ,AND FileName = </t>
-  </si>
-  <si>
-    <t>AcDate = ,AND BatchNo = ,AND ProcStsCode ^i</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcDate = ,AND BatchNo = ,AND ReconCode = ,AND ProcStsCode ^i</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcDate = ,AND BatchNo = ,AND ReconCode = ,AND ProcStsCode ^i</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>對帳類別</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode:ReconCode
-P01銀行存款－郵局
-P02銀行存款－新光
-A1~A7 (P03銀行存款－新光匯款轉帳)
-P04銀行存款－台新
-TEM員工扣薪15/非15???
-TCK支票</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1763,8 +1765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:C21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1797,7 +1799,7 @@
       <c r="A2" s="42"/>
       <c r="B2" s="44"/>
       <c r="C2" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -1827,7 +1829,7 @@
       </c>
       <c r="B4" s="43"/>
       <c r="C4" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>40</v>
@@ -1842,7 +1844,7 @@
       </c>
       <c r="B5" s="45"/>
       <c r="C5" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -1955,7 +1957,7 @@
         <v>67</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>29</v>
@@ -1984,7 +1986,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1992,10 +1994,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>266</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>268</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>30</v>
@@ -2010,13 +2012,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C15" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="D15" s="37" t="s">
         <v>267</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>269</v>
       </c>
       <c r="E15" s="38">
         <v>6</v>
@@ -2047,7 +2049,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>22</v>
@@ -2095,7 +2097,7 @@
         <v>30</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="162">
@@ -2115,7 +2117,7 @@
         <v>2</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="113.4">
@@ -2123,10 +2125,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>42</v>
@@ -2135,7 +2137,7 @@
         <v>3</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="32.4">
@@ -2155,7 +2157,7 @@
         <v>18</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2163,10 +2165,10 @@
         <v>14</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D23" s="25" t="s">
         <v>29</v>
@@ -2175,7 +2177,7 @@
         <v>14</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2186,7 +2188,7 @@
         <v>68</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>31</v>
@@ -2232,15 +2234,15 @@
       </c>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" spans="1:7" ht="145.80000000000001">
+    <row r="27" spans="1:7" ht="169.8" customHeight="1">
       <c r="A27" s="19">
         <v>18</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>76</v>
+        <v>286</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>30</v>
@@ -2249,7 +2251,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2257,10 +2259,10 @@
         <v>19</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>56</v>
@@ -2269,7 +2271,7 @@
         <v>5</v>
       </c>
       <c r="G28" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="32.4">
@@ -2289,7 +2291,7 @@
         <v>600</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2327,7 +2329,7 @@
         <v>8</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2353,7 +2355,7 @@
         <v>24</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C33" s="21" t="s">
         <v>37</v>
@@ -2365,7 +2367,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2373,7 +2375,7 @@
         <v>25</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C34" s="21" t="s">
         <v>38</v>
@@ -2391,13 +2393,13 @@
         <v>26</v>
       </c>
       <c r="B35" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="D35" s="25" t="s">
         <v>103</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>104</v>
       </c>
       <c r="E35" s="23"/>
       <c r="G35" s="24"/>
@@ -2407,13 +2409,13 @@
         <v>27</v>
       </c>
       <c r="B36" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="D36" s="25" t="s">
         <v>106</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>107</v>
       </c>
       <c r="E36" s="23">
         <v>6</v>
@@ -2425,13 +2427,13 @@
         <v>28</v>
       </c>
       <c r="B37" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="21" t="s">
-        <v>109</v>
-      </c>
       <c r="D37" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E37" s="23"/>
       <c r="G37" s="24"/>
@@ -2441,13 +2443,13 @@
         <v>29</v>
       </c>
       <c r="B38" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="21" t="s">
-        <v>111</v>
-      </c>
       <c r="D38" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E38" s="23">
         <v>6</v>
@@ -2478,7 +2480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
@@ -2504,10 +2506,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>50</v>
@@ -2515,7 +2517,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>49</v>
@@ -2526,7 +2528,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>48</v>
@@ -2537,7 +2539,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>52</v>
@@ -2548,7 +2550,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>59</v>
@@ -2559,10 +2561,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>50</v>
@@ -2570,10 +2572,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>50</v>
@@ -2581,10 +2583,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>50</v>
@@ -2592,10 +2594,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>50</v>
@@ -2603,10 +2605,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>50</v>
@@ -2614,10 +2616,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>50</v>
@@ -2625,18 +2627,18 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2644,10 +2646,10 @@
         <v>64</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2655,109 +2657,109 @@
         <v>75</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="34" customFormat="1">
       <c r="A18" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="34" customFormat="1">
       <c r="A19" s="33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="34" customFormat="1">
       <c r="A20" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="34" customFormat="1">
       <c r="A21" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="C21" s="33" t="s">
         <v>261</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="34" customFormat="1">
       <c r="A22" s="33" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="34" customFormat="1">
       <c r="A23" s="33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -2787,12 +2789,12 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2823,10 +2825,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>34</v>
@@ -2842,13 +2844,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>118</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>119</v>
       </c>
       <c r="F7" s="16">
         <v>100</v>
@@ -2861,13 +2863,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>123</v>
-      </c>
       <c r="E8" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F8" s="16">
         <v>14</v>
@@ -2880,13 +2882,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="28" t="s">
-        <v>127</v>
-      </c>
       <c r="E9" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F9" s="16">
         <v>20</v>
@@ -2899,10 +2901,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="28" t="s">
         <v>128</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>129</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>34</v>
@@ -2918,13 +2920,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
@@ -2935,13 +2937,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="D12" s="28" t="s">
-        <v>132</v>
-      </c>
       <c r="E12" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
@@ -2952,20 +2954,20 @@
         <v>8</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F13" s="16">
         <v>100</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2991,402 +2993,402 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B38" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B39" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B44" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B45" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B46" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B49" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B50" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/DbLayouts/L4-批次作業/BatxDetail.xlsx
+++ b/DbLayouts/L4-批次作業/BatxDetail.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4BACD7-B881-409C-90DC-2B0E4EEB1030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="285">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -982,27 +983,11 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>檔案序號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>檔名</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>DECIMAL</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecordSeq</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>BatchNo DESC , DetailSeq ASC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BatchNo DESC , RecordSeq ASC</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1104,12 +1089,16 @@
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>BatchNo DESC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1220,13 +1209,6 @@
       <family val="1"/>
       <charset val="136"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1317,7 +1299,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1421,27 +1403,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1459,8 +1420,8 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="超連結" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1552,6 +1513,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1587,6 +1565,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1762,14 +1757,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="16" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
@@ -1780,11 +1775,11 @@
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="44"/>
+      <c r="B1" s="37"/>
       <c r="C1" s="3" t="s">
         <v>41</v>
       </c>
@@ -1795,9 +1790,9 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="42"/>
-      <c r="B2" s="44"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="35"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="8" t="s">
         <v>141</v>
       </c>
@@ -1808,11 +1803,11 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="45" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="45"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="12" t="s">
         <v>51</v>
       </c>
@@ -1823,11 +1818,11 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="42" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="12" t="s">
         <v>142</v>
       </c>
@@ -1838,11 +1833,11 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="45" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="45"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="12" t="s">
         <v>144</v>
       </c>
@@ -1851,11 +1846,11 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="42" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="44"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="3" t="s">
         <v>66</v>
       </c>
@@ -1864,11 +1859,11 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="42" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="43"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="3" t="s">
         <v>54</v>
       </c>
@@ -1877,11 +1872,11 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="42" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="43"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="3" t="s">
         <v>58</v>
       </c>
@@ -1890,7 +1885,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" s="15" customFormat="1">
+    <row r="9" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
@@ -1913,7 +1908,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>1</v>
       </c>
@@ -1931,7 +1926,7 @@
       </c>
       <c r="G10" s="24"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>2</v>
       </c>
@@ -1949,7 +1944,7 @@
       </c>
       <c r="G11" s="24"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>3</v>
       </c>
@@ -1969,7 +1964,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="178.2">
+    <row r="13" spans="1:7" ht="217.8" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <v>4</v>
       </c>
@@ -1989,7 +1984,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <v>5</v>
       </c>
@@ -1997,7 +1992,7 @@
         <v>264</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>30</v>
@@ -2007,206 +2002,205 @@
       </c>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:7" s="41" customFormat="1">
-      <c r="A15" s="35">
+    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="19">
         <v>6</v>
       </c>
-      <c r="B15" s="36" t="s">
-        <v>268</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>265</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="E15" s="38">
-        <v>6</v>
-      </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="B15" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="23">
+        <v>8</v>
+      </c>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
         <v>7</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E16" s="23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A17" s="19">
         <v>8</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="23">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
         <v>9</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>29</v>
+        <v>73</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="E18" s="23">
-        <v>3</v>
-      </c>
-      <c r="G18" s="24"/>
-    </row>
-    <row r="19" spans="1:7">
+        <v>30</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="217.8" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <v>10</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>34</v>
+        <v>61</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>29</v>
       </c>
       <c r="E19" s="23">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="162">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="138.6" x14ac:dyDescent="0.3">
       <c r="A20" s="19">
         <v>11</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>29</v>
+        <v>280</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>42</v>
       </c>
       <c r="E20" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="113.4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A21" s="19">
         <v>12</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>284</v>
+        <v>44</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>45</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>42</v>
       </c>
       <c r="E21" s="23">
-        <v>3</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="32.4">
+        <v>18</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A22" s="19">
         <v>13</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="23">
-        <v>18</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>77</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="19">
+        <v>14</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A23" s="19">
         <v>14</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E23" s="19">
         <v>14</v>
       </c>
-      <c r="G23" s="24" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="G23" s="24"/>
+    </row>
+    <row r="24" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A24" s="19">
         <v>15</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>254</v>
+        <v>55</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E24" s="19">
         <v>14</v>
       </c>
       <c r="G24" s="24"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A25" s="19">
         <v>16</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D25" s="25" t="s">
         <v>32</v>
@@ -2216,245 +2210,227 @@
       </c>
       <c r="G25" s="24"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="169.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19">
         <v>17</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="19">
-        <v>14</v>
-      </c>
-      <c r="G26" s="24"/>
-    </row>
-    <row r="27" spans="1:7" ht="169.8" customHeight="1">
+        <v>282</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="23">
+        <v>1</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A27" s="19">
         <v>18</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>286</v>
+        <v>76</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E27" s="23">
-        <v>1</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G27" s="32" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A28" s="19">
         <v>19</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="E28" s="23">
-        <v>5</v>
-      </c>
-      <c r="G28" s="32" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="32.4">
+        <v>600</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A29" s="19">
         <v>20</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="23">
-        <v>600</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>30</v>
+      </c>
+      <c r="E29" s="19">
+        <v>6</v>
+      </c>
+      <c r="G29" s="24"/>
+    </row>
+    <row r="30" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A30" s="19">
         <v>21</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>30</v>
       </c>
       <c r="E30" s="19">
-        <v>6</v>
-      </c>
-      <c r="G30" s="24"/>
-    </row>
-    <row r="31" spans="1:7">
+        <v>8</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A31" s="19">
         <v>22</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="19">
+        <v>47</v>
+      </c>
+      <c r="E31" s="23">
         <v>8</v>
       </c>
-      <c r="G31" s="24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="G31" s="24"/>
+    </row>
+    <row r="32" spans="1:7" ht="99" x14ac:dyDescent="0.3">
       <c r="A32" s="19">
         <v>23</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E32" s="23">
-        <v>8</v>
-      </c>
-      <c r="G32" s="24"/>
-    </row>
-    <row r="33" spans="1:7" ht="81">
+        <v>1</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
         <v>24</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>143</v>
+        <v>263</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E33" s="23">
-        <v>1</v>
-      </c>
-      <c r="G33" s="24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="G33" s="24"/>
+    </row>
+    <row r="34" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A34" s="19">
         <v>25</v>
       </c>
-      <c r="B34" s="20" t="s">
-        <v>263</v>
+      <c r="B34" s="25" t="s">
+        <v>101</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" s="23">
-        <v>6</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="23"/>
       <c r="G34" s="24"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A35" s="19">
         <v>26</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35" s="23"/>
+        <v>106</v>
+      </c>
+      <c r="E35" s="23">
+        <v>6</v>
+      </c>
       <c r="G35" s="24"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A36" s="19">
         <v>27</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="E36" s="23">
-        <v>6</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="E36" s="23"/>
       <c r="G36" s="24"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A37" s="19">
         <v>28</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="E37" s="23"/>
+        <v>106</v>
+      </c>
+      <c r="E37" s="23">
+        <v>6</v>
+      </c>
       <c r="G37" s="24"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="19">
-        <v>29</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="E38" s="23">
-        <v>6</v>
-      </c>
-      <c r="G38" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2469,7 +2445,7 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G28" location="ProcCdoe!A1" display="參照ProcCode分頁"/>
+    <hyperlink ref="G27" location="ProcCdoe!A1" display="參照ProcCode分頁" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2477,15 +2453,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="104.21875" style="1" customWidth="1"/>
@@ -2493,7 +2469,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2504,7 +2480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>78</v>
       </c>
@@ -2515,7 +2491,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>79</v>
       </c>
@@ -2526,7 +2502,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>80</v>
       </c>
@@ -2537,7 +2513,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>81</v>
       </c>
@@ -2548,7 +2524,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>82</v>
       </c>
@@ -2559,7 +2535,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>88</v>
       </c>
@@ -2570,7 +2546,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>89</v>
       </c>
@@ -2581,7 +2557,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>90</v>
       </c>
@@ -2592,7 +2568,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>91</v>
       </c>
@@ -2603,7 +2579,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>92</v>
       </c>
@@ -2614,7 +2590,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>95</v>
       </c>
@@ -2625,141 +2601,141 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="34" customFormat="1">
+    <row r="18" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
         <v>257</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C18" s="33" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="34" customFormat="1">
+    <row r="19" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
         <v>258</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C19" s="33" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="34" customFormat="1">
+    <row r="20" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
         <v>259</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C20" s="33" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="34" customFormat="1">
+    <row r="21" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="33" t="s">
         <v>260</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C21" s="33" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="34" customFormat="1">
+    <row r="22" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C22" s="33" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="34" customFormat="1">
+    <row r="23" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C23" s="33" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -2770,14 +2746,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="21.44140625" customWidth="1"/>
@@ -2787,17 +2763,17 @@
     <col min="8" max="8" width="40.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="26" t="s">
         <v>0</v>
       </c>
@@ -2820,7 +2796,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="7" customFormat="1">
+    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16">
         <v>1</v>
       </c>
@@ -2839,7 +2815,7 @@
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="16">
         <v>2</v>
       </c>
@@ -2858,7 +2834,7 @@
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="1:8" s="7" customFormat="1">
+    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="16">
         <v>3</v>
       </c>
@@ -2877,7 +2853,7 @@
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:8" s="7" customFormat="1">
+    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16">
         <v>4</v>
       </c>
@@ -2896,7 +2872,7 @@
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="16">
         <v>5</v>
       </c>
@@ -2915,7 +2891,7 @@
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:8" s="7" customFormat="1">
+    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="16">
         <v>6</v>
       </c>
@@ -2932,7 +2908,7 @@
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="16">
         <v>7</v>
       </c>
@@ -2949,7 +2925,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="16">
         <v>8</v>
       </c>
@@ -2978,20 +2954,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.109375" style="31" customWidth="1"/>
     <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>252</v>
       </c>
@@ -2999,7 +2975,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>152</v>
       </c>
@@ -3007,7 +2983,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
         <v>153</v>
       </c>
@@ -3015,7 +2991,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>154</v>
       </c>
@@ -3023,7 +2999,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>155</v>
       </c>
@@ -3031,7 +3007,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>156</v>
       </c>
@@ -3039,7 +3015,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>157</v>
       </c>
@@ -3047,7 +3023,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>158</v>
       </c>
@@ -3055,7 +3031,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
         <v>159</v>
       </c>
@@ -3063,7 +3039,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
         <v>160</v>
       </c>
@@ -3071,7 +3047,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
         <v>161</v>
       </c>
@@ -3079,7 +3055,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
         <v>253</v>
       </c>
@@ -3087,7 +3063,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
         <v>162</v>
       </c>
@@ -3095,7 +3071,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
         <v>163</v>
       </c>
@@ -3103,7 +3079,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
         <v>164</v>
       </c>
@@ -3111,7 +3087,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="s">
         <v>165</v>
       </c>
@@ -3119,7 +3095,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
         <v>166</v>
       </c>
@@ -3127,7 +3103,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
         <v>167</v>
       </c>
@@ -3135,7 +3111,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="31" t="s">
         <v>168</v>
       </c>
@@ -3143,7 +3119,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
         <v>169</v>
       </c>
@@ -3151,7 +3127,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="31" t="s">
         <v>170</v>
       </c>
@@ -3159,7 +3135,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
         <v>171</v>
       </c>
@@ -3167,7 +3143,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="31" t="s">
         <v>172</v>
       </c>
@@ -3175,7 +3151,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
         <v>173</v>
       </c>
@@ -3183,7 +3159,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="31" t="s">
         <v>174</v>
       </c>
@@ -3191,7 +3167,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
         <v>175</v>
       </c>
@@ -3199,7 +3175,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="31" t="s">
         <v>176</v>
       </c>
@@ -3207,7 +3183,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
         <v>177</v>
       </c>
@@ -3215,7 +3191,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="31" t="s">
         <v>178</v>
       </c>
@@ -3223,7 +3199,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="31" t="s">
         <v>179</v>
       </c>
@@ -3231,7 +3207,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="31" t="s">
         <v>180</v>
       </c>
@@ -3239,7 +3215,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="31" t="s">
         <v>181</v>
       </c>
@@ -3247,7 +3223,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="31" t="s">
         <v>182</v>
       </c>
@@ -3255,7 +3231,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="31" t="s">
         <v>183</v>
       </c>
@@ -3263,7 +3239,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="31" t="s">
         <v>184</v>
       </c>
@@ -3271,7 +3247,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="31" t="s">
         <v>185</v>
       </c>
@@ -3279,7 +3255,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="31" t="s">
         <v>186</v>
       </c>
@@ -3287,7 +3263,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="31" t="s">
         <v>187</v>
       </c>
@@ -3295,7 +3271,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="31" t="s">
         <v>188</v>
       </c>
@@ -3303,7 +3279,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="31" t="s">
         <v>189</v>
       </c>
@@ -3311,7 +3287,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="31" t="s">
         <v>190</v>
       </c>
@@ -3319,7 +3295,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="31" t="s">
         <v>191</v>
       </c>
@@ -3327,7 +3303,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="31" t="s">
         <v>192</v>
       </c>
@@ -3335,7 +3311,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="31" t="s">
         <v>193</v>
       </c>
@@ -3343,7 +3319,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="31" t="s">
         <v>194</v>
       </c>
@@ -3351,7 +3327,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="31" t="s">
         <v>195</v>
       </c>
@@ -3359,7 +3335,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="31" t="s">
         <v>196</v>
       </c>
@@ -3367,7 +3343,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="31" t="s">
         <v>197</v>
       </c>
@@ -3375,7 +3351,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="31" t="s">
         <v>198</v>
       </c>
@@ -3383,7 +3359,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="31" t="s">
         <v>199</v>
       </c>

--- a/DbLayouts/L4-批次作業/BatxDetail.xlsx
+++ b/DbLayouts/L4-批次作業/BatxDetail.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4BACD7-B881-409C-90DC-2B0E4EEB1030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="291">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1093,12 +1092,36 @@
     <t>BatchNo DESC</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>RepayBank</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣款銀行</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>銀扣期款應繳日</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>PayIntDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decimald</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1420,8 +1443,8 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="2"/>
     <cellStyle name="超連結" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1513,23 +1536,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1565,23 +1571,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1757,14 +1746,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="6" style="16" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
@@ -1775,7 +1764,7 @@
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="35" t="s">
         <v>7</v>
       </c>
@@ -1790,7 +1779,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="35"/>
       <c r="B2" s="37"/>
       <c r="C2" s="8" t="s">
@@ -1803,7 +1792,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="38" t="s">
         <v>8</v>
       </c>
@@ -1818,7 +1807,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="35" t="s">
         <v>10</v>
       </c>
@@ -1833,7 +1822,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="38" t="s">
         <v>4</v>
       </c>
@@ -1846,7 +1835,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
@@ -1859,7 +1848,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="35" t="s">
         <v>6</v>
       </c>
@@ -1872,7 +1861,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="35" t="s">
         <v>57</v>
       </c>
@@ -1885,7 +1874,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="15" customFormat="1">
       <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
@@ -1908,7 +1897,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="19">
         <v>1</v>
       </c>
@@ -1926,7 +1915,7 @@
       </c>
       <c r="G10" s="24"/>
     </row>
-    <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="19">
         <v>2</v>
       </c>
@@ -1944,7 +1933,7 @@
       </c>
       <c r="G11" s="24"/>
     </row>
-    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="19">
         <v>3</v>
       </c>
@@ -1964,7 +1953,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="217.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="178.2">
       <c r="A13" s="19">
         <v>4</v>
       </c>
@@ -1984,7 +1973,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="19">
         <v>5</v>
       </c>
@@ -2002,7 +1991,7 @@
       </c>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="19">
         <v>6</v>
       </c>
@@ -2020,7 +2009,7 @@
       </c>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="19">
         <v>7</v>
       </c>
@@ -2038,7 +2027,7 @@
       </c>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="19">
         <v>8</v>
       </c>
@@ -2056,7 +2045,7 @@
       </c>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="19">
         <v>9</v>
       </c>
@@ -2076,7 +2065,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="217.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="162">
       <c r="A19" s="19">
         <v>10</v>
       </c>
@@ -2096,7 +2085,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="138.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="113.4">
       <c r="A20" s="19">
         <v>11</v>
       </c>
@@ -2116,7 +2105,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="32.4">
       <c r="A21" s="19">
         <v>12</v>
       </c>
@@ -2136,7 +2125,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="19">
         <v>13</v>
       </c>
@@ -2156,7 +2145,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="19">
         <v>14</v>
       </c>
@@ -2174,7 +2163,7 @@
       </c>
       <c r="G23" s="24"/>
     </row>
-    <row r="24" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="19">
         <v>15</v>
       </c>
@@ -2192,7 +2181,7 @@
       </c>
       <c r="G24" s="24"/>
     </row>
-    <row r="25" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="19">
         <v>16</v>
       </c>
@@ -2210,7 +2199,7 @@
       </c>
       <c r="G25" s="24"/>
     </row>
-    <row r="26" spans="1:7" ht="169.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="169.8" customHeight="1">
       <c r="A26" s="19">
         <v>17</v>
       </c>
@@ -2230,7 +2219,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" s="19">
         <v>18</v>
       </c>
@@ -2250,7 +2239,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="32.4">
       <c r="A28" s="19">
         <v>19</v>
       </c>
@@ -2270,7 +2259,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" s="19">
         <v>20</v>
       </c>
@@ -2288,7 +2277,7 @@
       </c>
       <c r="G29" s="24"/>
     </row>
-    <row r="30" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="19">
         <v>21</v>
       </c>
@@ -2308,7 +2297,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" s="19">
         <v>22</v>
       </c>
@@ -2326,7 +2315,7 @@
       </c>
       <c r="G31" s="24"/>
     </row>
-    <row r="32" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="81">
       <c r="A32" s="19">
         <v>23</v>
       </c>
@@ -2346,7 +2335,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" s="19">
         <v>24</v>
       </c>
@@ -2364,7 +2353,7 @@
       </c>
       <c r="G33" s="24"/>
     </row>
-    <row r="34" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" s="19">
         <v>25</v>
       </c>
@@ -2380,7 +2369,7 @@
       <c r="E34" s="23"/>
       <c r="G34" s="24"/>
     </row>
-    <row r="35" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" s="19">
         <v>26</v>
       </c>
@@ -2398,7 +2387,7 @@
       </c>
       <c r="G35" s="24"/>
     </row>
-    <row r="36" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" s="19">
         <v>27</v>
       </c>
@@ -2414,7 +2403,7 @@
       <c r="E36" s="23"/>
       <c r="G36" s="24"/>
     </row>
-    <row r="37" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7">
       <c r="A37" s="19">
         <v>28</v>
       </c>
@@ -2445,7 +2434,7 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G27" location="ProcCdoe!A1" display="參照ProcCode分頁" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G27" location="ProcCdoe!A1" display="參照ProcCode分頁"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2453,7 +2442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -2461,7 +2450,7 @@
       <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="104.21875" style="1" customWidth="1"/>
@@ -2469,7 +2458,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2480,7 +2469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>78</v>
       </c>
@@ -2491,7 +2480,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>79</v>
       </c>
@@ -2502,7 +2491,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>80</v>
       </c>
@@ -2513,7 +2502,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>81</v>
       </c>
@@ -2524,7 +2513,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>82</v>
       </c>
@@ -2535,7 +2524,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>88</v>
       </c>
@@ -2546,7 +2535,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>89</v>
       </c>
@@ -2557,7 +2546,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>90</v>
       </c>
@@ -2568,7 +2557,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>91</v>
       </c>
@@ -2579,7 +2568,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>92</v>
       </c>
@@ -2590,7 +2579,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>95</v>
       </c>
@@ -2601,7 +2590,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>93</v>
       </c>
@@ -2609,7 +2598,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>147</v>
       </c>
@@ -2617,7 +2606,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>64</v>
       </c>
@@ -2628,7 +2617,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>75</v>
       </c>
@@ -2639,7 +2628,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>98</v>
       </c>
@@ -2650,7 +2639,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" s="34" customFormat="1">
       <c r="A18" s="33" t="s">
         <v>257</v>
       </c>
@@ -2661,7 +2650,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" s="34" customFormat="1">
       <c r="A19" s="33" t="s">
         <v>258</v>
       </c>
@@ -2672,7 +2661,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" s="34" customFormat="1">
       <c r="A20" s="33" t="s">
         <v>259</v>
       </c>
@@ -2683,7 +2672,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" s="34" customFormat="1">
       <c r="A21" s="33" t="s">
         <v>260</v>
       </c>
@@ -2694,7 +2683,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" s="34" customFormat="1">
       <c r="A22" s="33" t="s">
         <v>267</v>
       </c>
@@ -2705,7 +2694,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" s="34" customFormat="1">
       <c r="A23" s="33" t="s">
         <v>268</v>
       </c>
@@ -2716,7 +2705,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>111</v>
       </c>
@@ -2727,7 +2716,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>149</v>
       </c>
@@ -2746,14 +2735,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="21.44140625" customWidth="1"/>
@@ -2763,17 +2752,17 @@
     <col min="8" max="8" width="40.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="29" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="B5" s="26" t="s">
         <v>0</v>
       </c>
@@ -2796,7 +2785,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="7" customFormat="1">
       <c r="B6" s="16">
         <v>1</v>
       </c>
@@ -2815,7 +2804,7 @@
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="B7" s="16">
         <v>2</v>
       </c>
@@ -2834,7 +2823,7 @@
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="7" customFormat="1">
       <c r="B8" s="16">
         <v>3</v>
       </c>
@@ -2853,7 +2842,7 @@
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="7" customFormat="1">
       <c r="B9" s="16">
         <v>4</v>
       </c>
@@ -2872,7 +2861,7 @@
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="B10" s="16">
         <v>5</v>
       </c>
@@ -2891,7 +2880,7 @@
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="7" customFormat="1">
       <c r="B11" s="16">
         <v>6</v>
       </c>
@@ -2908,7 +2897,7 @@
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="B12" s="16">
         <v>7</v>
       </c>
@@ -2925,7 +2914,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="B13" s="16">
         <v>8</v>
       </c>
@@ -2945,6 +2934,44 @@
       <c r="H13" s="30" t="s">
         <v>137</v>
       </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="16">
+        <v>9</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="F14" s="16">
+        <v>3</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" s="16">
+        <v>10</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="F15" s="16">
+        <v>8</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -2954,20 +2981,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="13.109375" style="31" customWidth="1"/>
     <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="31" t="s">
         <v>252</v>
       </c>
@@ -2975,7 +3002,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="31" t="s">
         <v>152</v>
       </c>
@@ -2983,7 +3010,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="31" t="s">
         <v>153</v>
       </c>
@@ -2991,7 +3018,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="31" t="s">
         <v>154</v>
       </c>
@@ -2999,7 +3026,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="31" t="s">
         <v>155</v>
       </c>
@@ -3007,7 +3034,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="31" t="s">
         <v>156</v>
       </c>
@@ -3015,7 +3042,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="31" t="s">
         <v>157</v>
       </c>
@@ -3023,7 +3050,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="31" t="s">
         <v>158</v>
       </c>
@@ -3031,7 +3058,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="31" t="s">
         <v>159</v>
       </c>
@@ -3039,7 +3066,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" s="31" t="s">
         <v>160</v>
       </c>
@@ -3047,7 +3074,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" s="31" t="s">
         <v>161</v>
       </c>
@@ -3055,7 +3082,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" s="31" t="s">
         <v>253</v>
       </c>
@@ -3063,7 +3090,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" s="31" t="s">
         <v>162</v>
       </c>
@@ -3071,7 +3098,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" s="31" t="s">
         <v>163</v>
       </c>
@@ -3079,7 +3106,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" s="31" t="s">
         <v>164</v>
       </c>
@@ -3087,7 +3114,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" s="31" t="s">
         <v>165</v>
       </c>
@@ -3095,7 +3122,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" s="31" t="s">
         <v>166</v>
       </c>
@@ -3103,7 +3130,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" s="31" t="s">
         <v>167</v>
       </c>
@@ -3111,7 +3138,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" s="31" t="s">
         <v>168</v>
       </c>
@@ -3119,7 +3146,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" s="31" t="s">
         <v>169</v>
       </c>
@@ -3127,7 +3154,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" s="31" t="s">
         <v>170</v>
       </c>
@@ -3135,7 +3162,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="A22" s="31" t="s">
         <v>171</v>
       </c>
@@ -3143,7 +3170,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23" s="31" t="s">
         <v>172</v>
       </c>
@@ -3151,7 +3178,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2">
       <c r="A24" s="31" t="s">
         <v>173</v>
       </c>
@@ -3159,7 +3186,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2">
       <c r="A25" s="31" t="s">
         <v>174</v>
       </c>
@@ -3167,7 +3194,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2">
       <c r="A26" s="31" t="s">
         <v>175</v>
       </c>
@@ -3175,7 +3202,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2">
       <c r="A27" s="31" t="s">
         <v>176</v>
       </c>
@@ -3183,7 +3210,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2">
       <c r="A28" s="31" t="s">
         <v>177</v>
       </c>
@@ -3191,7 +3218,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2">
       <c r="A29" s="31" t="s">
         <v>178</v>
       </c>
@@ -3199,7 +3226,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2">
       <c r="A30" s="31" t="s">
         <v>179</v>
       </c>
@@ -3207,7 +3234,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2">
       <c r="A31" s="31" t="s">
         <v>180</v>
       </c>
@@ -3215,7 +3242,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2">
       <c r="A32" s="31" t="s">
         <v>181</v>
       </c>
@@ -3223,7 +3250,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2">
       <c r="A33" s="31" t="s">
         <v>182</v>
       </c>
@@ -3231,7 +3258,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2">
       <c r="A34" s="31" t="s">
         <v>183</v>
       </c>
@@ -3239,7 +3266,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2">
       <c r="A35" s="31" t="s">
         <v>184</v>
       </c>
@@ -3247,7 +3274,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2">
       <c r="A36" s="31" t="s">
         <v>185</v>
       </c>
@@ -3255,7 +3282,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2">
       <c r="A37" s="31" t="s">
         <v>186</v>
       </c>
@@ -3263,7 +3290,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2">
       <c r="A38" s="31" t="s">
         <v>187</v>
       </c>
@@ -3271,7 +3298,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2">
       <c r="A39" s="31" t="s">
         <v>188</v>
       </c>
@@ -3279,7 +3306,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2">
       <c r="A40" s="31" t="s">
         <v>189</v>
       </c>
@@ -3287,7 +3314,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2">
       <c r="A41" s="31" t="s">
         <v>190</v>
       </c>
@@ -3295,7 +3322,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2">
       <c r="A42" s="31" t="s">
         <v>191</v>
       </c>
@@ -3303,7 +3330,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2">
       <c r="A43" s="31" t="s">
         <v>192</v>
       </c>
@@ -3311,7 +3338,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2">
       <c r="A44" s="31" t="s">
         <v>193</v>
       </c>
@@ -3319,7 +3346,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2">
       <c r="A45" s="31" t="s">
         <v>194</v>
       </c>
@@ -3327,7 +3354,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2">
       <c r="A46" s="31" t="s">
         <v>195</v>
       </c>
@@ -3335,7 +3362,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2">
       <c r="A47" s="31" t="s">
         <v>196</v>
       </c>
@@ -3343,7 +3370,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2">
       <c r="A48" s="31" t="s">
         <v>197</v>
       </c>
@@ -3351,7 +3378,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2">
       <c r="A49" s="31" t="s">
         <v>198</v>
       </c>
@@ -3359,7 +3386,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2">
       <c r="A50" s="31" t="s">
         <v>199</v>
       </c>
